--- a/Computing Science Drop Off.xlsx
+++ b/Computing Science Drop Off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44750\Documents\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1A20C-6AF9-4042-BF48-5310059674B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033313A-45FB-4278-9866-D300765D9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A8C9630-F6CE-4560-95F6-A3D3A80F2E30}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="112">
   <si>
     <t>Totals</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Grade A to C</t>
+  </si>
+  <si>
+    <t>Voluntary Drop Off</t>
   </si>
 </sst>
 </file>
@@ -752,39 +758,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,12 +834,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,6 +843,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -980,7 +986,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Workings!$E$7:$E$8</c:f>
+              <c:f>Workings!$E$9:$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1018,7 +1024,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Workings!$D$9:$D$12</c:f>
+              <c:f>Workings!$D$11:$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1038,7 +1044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Workings!$E$9:$E$12</c:f>
+              <c:f>Workings!$E$11:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1069,7 +1075,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Workings!$F$7:$F$8</c:f>
+              <c:f>Workings!$F$9:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1107,7 +1113,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Workings!$D$9:$D$12</c:f>
+              <c:f>Workings!$D$11:$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1127,7 +1133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Workings!$F$9:$F$12</c:f>
+              <c:f>Workings!$F$11:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1150,6 +1156,184 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D095-4FC0-B5CD-DE95D81582D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$G$9:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Voluntary Drop Off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$D$11:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015-2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016-2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$G$11:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28317558284650646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27948670344540583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29394812774889878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29090909785043706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-334C-430A-8853-F927D1347AAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$H$9:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Voluntary Drop Off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$D$11:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015-2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016-2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$H$11:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44093305042532782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46978240489775525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46479999613207168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47813409108332905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-334C-430A-8853-F927D1347AAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,16 +2087,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2237,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C6DC3D-B2F7-426D-8820-7BAFBCC43045}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2441,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="34" t="s">
         <v>108</v>
       </c>
       <c r="J2" t="s">
@@ -2291,10 +2475,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D4" t="s">
@@ -2315,10 +2499,10 @@
       <c r="I4" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="34" t="s">
         <v>77</v>
       </c>
       <c r="L4" t="s">
@@ -2336,12 +2520,12 @@
       <c r="P4" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B5">
@@ -2409,90 +2593,203 @@
         <v>537.00000863999992</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+    </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="A7" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <f>(('Nat5 2015'!$B$19*('Nat5 2015'!C$19/100))*('Nat5 2015'!G19/100))+(('Int2 2015'!$B$23*('Int2 2015'!C$23/100))*('Int2 2015'!H23/100))</f>
+        <v>5177.0000195813136</v>
+      </c>
+      <c r="C7">
+        <f>(('Nat5 2015'!$B$19*('Nat5 2015'!D$19/100))*('Nat5 2015'!H19/100))+(('Int2 2015'!$B$23*('Int2 2015'!D$23/100))*('Int2 2015'!I23/100))</f>
+        <v>1329.0000042486156</v>
+      </c>
+      <c r="D7">
+        <f>D5*('Nat5 2016'!G19/100)</f>
+        <v>5299.0000302523295</v>
+      </c>
+      <c r="E7">
+        <f>E5*('Nat5 2016'!H19/100)</f>
+        <v>1240.9999702727976</v>
+      </c>
+      <c r="F7">
+        <f>F5*('Nat5 2017'!G19/100)</f>
+        <v>4858.0000016204904</v>
+      </c>
+      <c r="G7">
+        <f>G5*('Nat5 2017'!H19/100)</f>
+        <v>1249.9999974310344</v>
+      </c>
+      <c r="H7">
+        <f>H5*('Nat5 2018'!G20/100)</f>
+        <v>3795.0000249649356</v>
+      </c>
+      <c r="I7">
+        <f>I5*('Nat5 2018'!H20/100)</f>
+        <v>1028.9999777045132</v>
+      </c>
+      <c r="J7">
+        <f>J5*('Higher 2016'!G20/100)</f>
+        <v>2586.0000113897731</v>
+      </c>
+      <c r="K7">
+        <f>K5*('Higher 2016'!H20/100)</f>
+        <v>566.9999861260294</v>
+      </c>
+      <c r="L7">
+        <f>L5*('Higher 2017'!G20/100)</f>
+        <v>2446.9999797955898</v>
+      </c>
+      <c r="M7">
+        <f>M5*('Higher 2017'!H20/100)</f>
+        <v>451.00001068370807</v>
+      </c>
+      <c r="N7">
+        <f>N5*('Higher 2018'!G20/100)</f>
+        <v>2302.0000105778659</v>
+      </c>
+      <c r="O7">
+        <f>O5*('Higher 2018'!H20/100)</f>
+        <v>515.0000025835277</v>
+      </c>
+      <c r="P7">
+        <f>P5*('Higher 2019'!K20/100)</f>
+        <v>1682.999994056388</v>
+      </c>
+      <c r="Q7">
+        <f>Q5*('Higher 2019'!L20/100)</f>
+        <v>386.00000424050273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="43" t="s">
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E11" s="44">
         <f>1-(J5/B5)</f>
         <v>0.41263057468956332</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F11" s="44">
         <f>1-(K5/C5)</f>
         <v>0.52915084133662948</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="G11" s="44">
+        <f>1-(J5/B7)</f>
+        <v>0.28317558284650646</v>
+      </c>
+      <c r="H11" s="44">
+        <f>1-(K5/C7)</f>
+        <v>0.44093305042532782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E12" s="44">
         <f>1-(L5/D5)</f>
         <v>0.41161966989925336</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F12" s="44">
         <f>1-(M5/E5)</f>
         <v>0.54210157694047656</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="G12" s="44">
+        <f>1-(L5/D7)</f>
+        <v>0.27948670344540583</v>
+      </c>
+      <c r="H12" s="44">
+        <f>1-(M5/E7)</f>
+        <v>0.46978240489775525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E13" s="44">
         <f>1-(N5/F5)</f>
         <v>0.42747454673392893</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F13" s="44">
         <f>1-(O5/G5)</f>
         <v>0.53862068392157902</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="G13" s="44">
+        <f>1-(N5/F7)</f>
+        <v>0.29394812774889878</v>
+      </c>
+      <c r="H13" s="44">
+        <f>1-(O5/G7)</f>
+        <v>0.46479999613207168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E14" s="44">
         <f>1-(P5/H5)</f>
         <v>0.48030127890555319</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F14" s="44">
         <f>1-(Q5/I5)</f>
         <v>0.57482183712459278</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="G14" s="44">
+        <f>1-(P5/H7)</f>
+        <v>0.29090909785043706</v>
+      </c>
+      <c r="H14" s="44">
+        <f>1-(Q5/I7)</f>
+        <v>0.47813409108332905</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2511,7 +2808,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2524,76 +2821,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -2622,1479 +2919,1479 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="71"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="52">
         <v>37</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="51">
         <v>16.216215999999999</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="51">
         <v>83.783783999999997</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="50">
         <v>16.666667</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="49">
         <v>61.290323000000001</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="50">
         <v>83.333332999999996</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="49">
         <v>87.096773999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="52">
         <v>86</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="51">
         <v>33.720930000000003</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="51">
         <v>66.279070000000004</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="50">
         <v>20.689654999999998</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="49">
         <v>29.824560999999999</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="50">
         <v>58.620690000000003</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="49">
         <v>85.964911999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="52">
         <v>185</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="51">
         <v>34.054054000000001</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="51">
         <v>65.945946000000006</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="50">
         <v>22.222221999999999</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="49">
         <v>50.819671999999997</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="50">
         <v>66.666667000000004</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="49">
         <v>89.344262000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="52">
         <v>444</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="51">
         <v>38.288288000000001</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="51">
         <v>61.711711999999999</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="50">
         <v>14.705882000000001</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="49">
         <v>22.992701</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="50">
         <v>61.764705999999997</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="49">
         <v>66.423357999999993</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="52">
         <v>4</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="51">
         <v>25</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="51">
         <v>75</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="52">
         <v>386</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="51">
         <v>48.963731000000003</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="51">
         <v>51.036268999999997</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="50">
         <v>23.809524</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="49">
         <v>29.949238999999999</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="50">
         <v>69.312168999999997</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="49">
         <v>71.065989999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="52">
         <v>253</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="51">
         <v>5.1383399000000001</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="51">
         <v>94.861660000000001</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="50">
         <v>15.384615</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="49">
         <v>35.416666999999997</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="50">
         <v>61.538462000000003</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="49">
         <v>78.333332999999996</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="52">
         <v>21</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="51">
         <v>0</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="51">
         <v>100</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="49">
         <v>0</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="58">
         <v>17</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="67">
         <v>5.8823528999999999</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="67">
         <v>94.117647000000005</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="59">
         <v>37.5</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="59">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="52">
         <v>464</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="51">
         <v>47.629309999999997</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="51">
         <v>52.370690000000003</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="50">
         <v>40.723981999999999</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="49">
         <v>51.028807</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="50">
         <v>78.280542999999994</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="49">
         <v>86.008229999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="52">
         <v>11</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="51">
         <v>27.272727</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="51">
         <v>72.727272999999997</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="49">
         <v>100</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="52">
         <v>10</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="51">
         <v>50</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="51">
         <v>50</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="50">
         <v>60</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="49">
         <v>100</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="50">
         <v>100</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="52">
         <v>28</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="51">
         <v>64.285713999999999</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="51">
         <v>35.714286000000001</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="50">
         <v>38.888888999999999</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="49">
         <v>70</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="50">
         <v>94.444444000000004</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="52">
         <v>232</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="51">
         <v>86.206896999999998</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="51">
         <v>13.793103</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="50">
         <v>12</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="49">
         <v>18.75</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="50">
         <v>67</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="49">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="52">
         <v>72</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="51">
         <v>19.444444000000001</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="51">
         <v>80.555555999999996</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="50">
         <v>42.857143000000001</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="49">
         <v>53.448276</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="50">
         <v>92.857142999999994</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="52">
         <v>30</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="51">
         <v>46.666666999999997</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="51">
         <v>53.333333000000003</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="50">
         <v>64.285713999999999</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="49">
         <v>62.5</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="50">
         <v>100</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="58">
         <v>100</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="67">
         <v>63</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="67">
         <v>37</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="60">
         <v>71.428571000000005</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="59">
         <v>83.783783999999997</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="60">
         <v>95.238095000000001</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="59">
         <v>94.594594999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="52">
         <v>52</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="51">
         <v>98.076922999999994</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="51">
         <v>1.9230769000000001</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="50">
         <v>11.764706</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="50">
         <v>100</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="52">
         <v>3</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="51">
         <v>100</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="51">
         <v>0</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="52">
         <v>116</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="51">
         <v>96.551723999999993</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="51">
         <v>3.4482759000000001</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="50">
         <v>46.428570999999998</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="50">
         <v>98.214286000000001</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="52">
         <v>1742</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="51">
         <v>54.075775</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="51">
         <v>45.924225</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="50">
         <v>15.498938000000001</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="49">
         <v>24.5</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="50">
         <v>74.734606999999997</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="49">
         <v>84.25</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="52">
         <v>141</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="51">
         <v>40.425531999999997</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="51">
         <v>59.574468000000003</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="50">
         <v>28.070174999999999</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="49">
         <v>34.523809999999997</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="50">
         <v>82.456140000000005</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="49">
         <v>70.238095000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="52">
         <v>177</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="51">
         <v>45.762712000000001</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="51">
         <v>54.237287999999999</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="50">
         <v>59.259259</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="49">
         <v>65.625</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="50">
         <v>90.123457000000002</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="49">
         <v>89.583332999999996</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="52">
         <v>1</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="51">
         <v>0</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="51">
         <v>100</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="52">
         <v>6</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="51">
         <v>33.333333000000003</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="51">
         <v>66.666667000000004</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="52">
         <v>317</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="51">
         <v>52.681387999999998</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="51">
         <v>47.318612000000002</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="50">
         <v>10.179641</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="49">
         <v>31.333333</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="50">
         <v>54.491017999999997</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="49">
         <v>59.333333000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="58">
         <v>6</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="67">
         <v>50</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="67">
         <v>50</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="52">
         <v>43</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="51">
         <v>37.209302000000001</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="51">
         <v>62.790697999999999</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="50">
         <v>37.5</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="49">
         <v>40.740741</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="50">
         <v>75</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="49">
         <v>88.888889000000006</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="52">
         <v>67</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="51">
         <v>82.089551999999998</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="51">
         <v>17.910447999999999</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="50">
         <v>29.090909</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="49">
         <v>50</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="50">
         <v>80</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="49">
         <v>83.333332999999996</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="52">
         <v>180</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="51">
         <v>4.4444444000000001</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="51">
         <v>95.555555999999996</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="50">
         <v>37.5</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="49">
         <v>54.069766999999999</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="50">
         <v>100</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="49">
         <v>97.674419</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="52">
         <v>343</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="51">
         <v>46.064140000000002</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="51">
         <v>53.935859999999998</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="50">
         <v>22.151899</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="49">
         <v>35.675676000000003</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="50">
         <v>74.050633000000005</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="49">
         <v>72.972972999999996</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="52">
         <v>20</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="51">
         <v>20</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="51">
         <v>80</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="49">
         <v>6.25</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="49">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="62">
+      <c r="B42" s="52">
         <v>35</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="51">
         <v>60</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="51">
         <v>40</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="50">
         <v>9.5238095000000005</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="49">
         <v>50</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="50">
         <v>61.904761999999998</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="49">
         <v>78.571428999999995</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="52">
         <v>29</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="51">
         <v>41.379309999999997</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="51">
         <v>58.620690000000003</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="50">
         <v>50</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="49">
         <v>35.294117999999997</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="50">
         <v>100</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="62">
+      <c r="B44" s="52">
         <v>240</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="51">
         <v>49.583333000000003</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="51">
         <v>50.416666999999997</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="50">
         <v>35.294117999999997</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="49">
         <v>63.636364</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="50">
         <v>91.596638999999996</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="49">
         <v>98.347106999999994</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="52">
         <v>77</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="51">
         <v>71.428571000000005</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="51">
         <v>28.571428999999998</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="50">
         <v>16.363636</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="49">
         <v>9.0909090999999993</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="50">
         <v>67.272727000000003</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="49">
         <v>54.545454999999997</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="62">
+      <c r="B46" s="52">
         <v>19</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="51">
         <v>31.578946999999999</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="51">
         <v>68.421053000000001</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="50">
         <v>66.666667000000004</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="49">
         <v>84.615385000000003</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="50">
         <v>100</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H46" s="49">
         <v>92.307692000000003</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="52">
         <v>14</v>
       </c>
-      <c r="C47" s="61">
+      <c r="C47" s="51">
         <v>35.714286000000001</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="51">
         <v>64.285713999999999</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="50">
         <v>80</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="49">
         <v>100</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="50">
         <v>100</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="62">
+      <c r="B48" s="52">
         <v>30</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="51">
         <v>76.666667000000004</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="51">
         <v>23.333333</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="50">
         <v>8.6956521999999996</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="49">
         <v>14.285714</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="50">
         <v>86.956522000000007</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="49">
         <v>57.142856999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="52">
         <v>2302</v>
       </c>
-      <c r="C49" s="61">
+      <c r="C49" s="51">
         <v>45.916594000000003</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="51">
         <v>54.083405999999997</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="50">
         <v>18.637654000000001</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="49">
         <v>23.775099999999998</v>
       </c>
-      <c r="G49" s="60">
+      <c r="G49" s="50">
         <v>51.182592</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="49">
         <v>56.867469999999997</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="52">
         <v>119</v>
       </c>
-      <c r="C50" s="61">
+      <c r="C50" s="51">
         <v>62.184874000000001</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="51">
         <v>37.815125999999999</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="50">
         <v>9.4594594999999995</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="49">
         <v>22.222221999999999</v>
       </c>
-      <c r="G50" s="60">
+      <c r="G50" s="50">
         <v>67.567567999999994</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="49">
         <v>71.111110999999994</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="52">
         <v>191</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="51">
         <v>55.497382000000002</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="51">
         <v>44.502617999999998</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="50">
         <v>16.037735999999999</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="49">
         <v>9.4117647000000009</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="50">
         <v>55.660376999999997</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="49">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="52">
         <v>49</v>
       </c>
-      <c r="C52" s="61">
+      <c r="C52" s="51">
         <v>32.653061000000001</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="51">
         <v>67.346939000000006</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="50">
         <v>50</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="49">
         <v>69.696969999999993</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="50">
         <v>93.75</v>
       </c>
-      <c r="H52" s="59">
+      <c r="H52" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="52">
         <v>68</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="51">
         <v>41.176470999999999</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="51">
         <v>58.823529000000001</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="50">
         <v>14.285714</v>
       </c>
-      <c r="F53" s="59">
+      <c r="F53" s="49">
         <v>20</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="50">
         <v>67.857142999999994</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="49">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="52">
         <v>315</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="51">
         <v>73.968254000000002</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="51">
         <v>26.031745999999998</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54" s="50">
         <v>12.875536</v>
       </c>
-      <c r="F54" s="59">
+      <c r="F54" s="49">
         <v>47.560975999999997</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="50">
         <v>95.278970000000001</v>
       </c>
-      <c r="H54" s="59">
+      <c r="H54" s="49">
         <v>95.121950999999996</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="52">
         <v>352</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="51">
         <v>64.488636</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="51">
         <v>35.511364</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="50">
         <v>45.374448999999998</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="49">
         <v>71.2</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="50">
         <v>79.295153999999997</v>
       </c>
-      <c r="H55" s="59">
+      <c r="H55" s="49">
         <v>98.4</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="62">
+      <c r="B56" s="52">
         <v>96</v>
       </c>
-      <c r="C56" s="61">
+      <c r="C56" s="51">
         <v>84.375</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="51">
         <v>15.625</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="50">
         <v>30.864197999999998</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="49">
         <v>46.666666999999997</v>
       </c>
-      <c r="G56" s="60">
+      <c r="G56" s="50">
         <v>82.716048999999998</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="49">
         <v>93.333332999999996</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="62">
+      <c r="B57" s="52">
         <v>281</v>
       </c>
-      <c r="C57" s="61">
+      <c r="C57" s="51">
         <v>29.181495000000002</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="51">
         <v>70.818505000000002</v>
       </c>
-      <c r="E57" s="60">
+      <c r="E57" s="50">
         <v>31.707317</v>
       </c>
-      <c r="F57" s="59">
+      <c r="F57" s="49">
         <v>40.703518000000003</v>
       </c>
-      <c r="G57" s="60">
+      <c r="G57" s="50">
         <v>59.756098000000001</v>
       </c>
-      <c r="H57" s="59">
+      <c r="H57" s="49">
         <v>76.381910000000005</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="62">
+      <c r="B58" s="52">
         <v>134</v>
       </c>
-      <c r="C58" s="61">
+      <c r="C58" s="51">
         <v>27.611940000000001</v>
       </c>
-      <c r="D58" s="61">
+      <c r="D58" s="51">
         <v>72.388059999999996</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="50">
         <v>5.4054054000000002</v>
       </c>
-      <c r="F58" s="59">
+      <c r="F58" s="49">
         <v>45.360824999999998</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="50">
         <v>51.351351000000001</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="49">
         <v>71.134021000000004</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="52">
         <v>6</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="51">
         <v>50</v>
       </c>
-      <c r="D59" s="61">
+      <c r="D59" s="51">
         <v>50</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="E59" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="62">
+      <c r="B60" s="52">
         <v>150</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C60" s="51">
         <v>30.666667</v>
       </c>
-      <c r="D60" s="61">
+      <c r="D60" s="51">
         <v>69.333332999999996</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="50">
         <v>34.782609000000001</v>
       </c>
-      <c r="F60" s="59">
+      <c r="F60" s="49">
         <v>30.769231000000001</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="50">
         <v>76.086956999999998</v>
       </c>
-      <c r="H60" s="59">
+      <c r="H60" s="49">
         <v>72.115385000000003</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="62">
+      <c r="B61" s="52">
         <v>125</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="51">
         <v>36.799999999999997</v>
       </c>
-      <c r="D61" s="61">
+      <c r="D61" s="51">
         <v>63.2</v>
       </c>
-      <c r="E61" s="60">
+      <c r="E61" s="50">
         <v>58.695652000000003</v>
       </c>
-      <c r="F61" s="59">
+      <c r="F61" s="49">
         <v>70.886076000000003</v>
       </c>
-      <c r="G61" s="60">
+      <c r="G61" s="50">
         <v>89.130435000000006</v>
       </c>
-      <c r="H61" s="59">
+      <c r="H61" s="49">
         <v>93.670885999999996</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="62">
+      <c r="B62" s="52">
         <v>21</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C62" s="51">
         <v>95.238095000000001</v>
       </c>
-      <c r="D62" s="61">
+      <c r="D62" s="51">
         <v>4.7619047999999999</v>
       </c>
-      <c r="E62" s="60">
+      <c r="E62" s="50">
         <v>65</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="60">
+      <c r="G62" s="50">
         <v>90</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="62">
+      <c r="B63" s="52">
         <v>209</v>
       </c>
-      <c r="C63" s="61">
+      <c r="C63" s="51">
         <v>36.363636</v>
       </c>
-      <c r="D63" s="61">
+      <c r="D63" s="51">
         <v>63.636364</v>
       </c>
-      <c r="E63" s="60">
+      <c r="E63" s="50">
         <v>13.157895</v>
       </c>
-      <c r="F63" s="59">
+      <c r="F63" s="49">
         <v>35.338346000000001</v>
       </c>
-      <c r="G63" s="60">
+      <c r="G63" s="50">
         <v>63.157895000000003</v>
       </c>
-      <c r="H63" s="59">
+      <c r="H63" s="49">
         <v>75.187970000000007</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="62">
+      <c r="B64" s="52">
         <v>226</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C64" s="51">
         <v>81.858407</v>
       </c>
-      <c r="D64" s="61">
+      <c r="D64" s="51">
         <v>18.141593</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="50">
         <v>57.837837999999998</v>
       </c>
-      <c r="F64" s="59">
+      <c r="F64" s="49">
         <v>63.414634</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="50">
         <v>96.216216000000003</v>
       </c>
-      <c r="H64" s="59">
+      <c r="H64" s="49">
         <v>97.560975999999997</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="58">
+      <c r="B65" s="48">
         <v>10682</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="47">
         <v>48.932783999999998</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="47">
         <v>51.067216000000002</v>
       </c>
-      <c r="E65" s="56">
+      <c r="E65" s="46">
         <v>24.775206000000001</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="45">
         <v>35.417048999999999</v>
       </c>
-      <c r="G65" s="56">
+      <c r="G65" s="46">
         <v>71.551558999999997</v>
       </c>
-      <c r="H65" s="55">
+      <c r="H65" s="45">
         <v>75.490375999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{156C212C-B787-4499-84E9-D0E4F338E1A4}"/>
@@ -4115,7 +4412,7 @@
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J18" sqref="J18"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4128,74 +4425,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4206,32 +4503,32 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="31" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="30"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4240,10 +4537,10 @@
       <c r="D8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="42" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -4252,10 +4549,10 @@
       <c r="H8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="42" t="s">
         <v>70</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -4264,10 +4561,10 @@
       <c r="L8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4643,28 +4940,28 @@
       <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="40">
         <v>173</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="39">
         <v>35.260115999999996</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="39">
         <v>64.739884000000004</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="39">
         <v>0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="39">
         <v>0</v>
       </c>
       <c r="G18" s="20">
         <v>75.409835999999999</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="39">
         <v>88.392857000000006</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="39" t="s">
         <v>68</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -4673,10 +4970,10 @@
       <c r="K18" s="20">
         <v>91.803279000000003</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="39">
         <v>99.107142999999994</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="39" t="s">
         <v>68</v>
       </c>
       <c r="N18" s="19" t="s">
@@ -4995,28 +5292,28 @@
       <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="40">
         <v>35460</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="39">
         <v>41.990976000000003</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="39">
         <v>58.006203999999997</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="39">
         <v>0</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="39">
         <v>2.8200999999999999E-3</v>
       </c>
       <c r="G26" s="20">
         <v>18.985897000000001</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="39">
         <v>26.598279000000002</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="39" t="s">
         <v>68</v>
       </c>
       <c r="J26" s="19" t="s">
@@ -5025,10 +5322,10 @@
       <c r="K26" s="20">
         <v>68.710543999999999</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="39">
         <v>76.819485999999998</v>
       </c>
-      <c r="M26" s="48" t="s">
+      <c r="M26" s="39" t="s">
         <v>68</v>
       </c>
       <c r="N26" s="19" t="s">
@@ -5435,28 +5732,28 @@
       <c r="A36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="40">
         <v>1191</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="39">
         <v>18.303946</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="39">
         <v>81.696054000000004</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="39">
         <v>0</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="39">
         <v>0</v>
       </c>
       <c r="G36" s="20">
         <v>5.5045871999999996</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="39">
         <v>11.921891</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="39" t="s">
         <v>68</v>
       </c>
       <c r="J36" s="19" t="s">
@@ -5465,10 +5762,10 @@
       <c r="K36" s="20">
         <v>43.119266000000003</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="39">
         <v>63.926001999999997</v>
       </c>
-      <c r="M36" s="48" t="s">
+      <c r="M36" s="39" t="s">
         <v>68</v>
       </c>
       <c r="N36" s="19" t="s">
@@ -7293,76 +7590,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -8623,21 +8920,21 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{C6AA95FB-6FEE-4810-A0B0-29D649FD64C9}"/>
@@ -8671,76 +8968,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -10001,21 +10298,21 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{080AEF11-C8BC-4224-AF74-14C9506158DF}"/>
@@ -10036,7 +10333,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:H3"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10049,76 +10346,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -10147,1208 +10444,1208 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="71"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="52">
         <v>1364</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="51">
         <v>53.299120000000002</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="51">
         <v>46.700879999999998</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="50">
         <v>37.001376</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="49">
         <v>38.304552999999999</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="50">
         <v>77.991747000000004</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="49">
         <v>75.824175999999994</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="52">
         <v>3963</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="51">
         <v>31.466061</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="51">
         <v>68.533939000000004</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="50">
         <v>28.468323999999999</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="49">
         <v>31.701031</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="50">
         <v>76.904571000000004</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="49">
         <v>78.755522999999997</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="52">
         <v>5500</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="51">
         <v>19.163636</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="51">
         <v>80.836364000000003</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="50">
         <v>18.975332000000002</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="49">
         <v>27.125506000000001</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="50">
         <v>74.762808000000007</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="49">
         <v>82.860999000000007</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="52">
         <v>7492</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="51">
         <v>33.889482000000001</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="51">
         <v>66.110517999999999</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="50">
         <v>23.198108999999999</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="49">
         <v>24.813244000000001</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="50">
         <v>67.703819999999993</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="49">
         <v>69.614374999999995</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="52">
         <v>9108</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="51">
         <v>42.852437000000002</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="51">
         <v>57.147562999999998</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="50">
         <v>24.980784</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="49">
         <v>30.317003</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="50">
         <v>72.764539999999997</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="49">
         <v>77.348703</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="52">
         <v>1130</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="51">
         <v>7.8761061999999997</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="51">
         <v>92.123894000000007</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="50">
         <v>11.235955000000001</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="49">
         <v>18.059557999999999</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="50">
         <v>53.932583999999999</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="49">
         <v>66.570605</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="52">
         <v>10077</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="51">
         <v>49.270615999999997</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="51">
         <v>50.729384000000003</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="50">
         <v>29.707955999999999</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="49">
         <v>30.418623</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="50">
         <v>75.810675000000003</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="49">
         <v>77.190922999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="52">
         <v>524</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="51">
         <v>1.9083969000000001</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="51">
         <v>98.091603000000006</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="50">
         <v>20</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="49">
         <v>20.622568000000001</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="50">
         <v>60</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="49">
         <v>77.431906999999995</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="58">
         <v>111</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="57">
         <v>38.738739000000002</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="57">
         <v>61.261260999999998</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="56">
         <v>76.744185999999999</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="55">
         <v>83.823528999999994</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="56">
         <v>93.023256000000003</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="55">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="52">
         <v>422</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="51">
         <v>31.516587999999999</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="51">
         <v>68.483412000000001</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="50">
         <v>27.819548999999999</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="49">
         <v>30.103805999999999</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="50">
         <v>81.954886999999999</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="49">
         <v>80.968857999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="52">
         <v>4454</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="51">
         <v>83.318365999999997</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="51">
         <v>16.681633999999999</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="50">
         <v>19.590406999999999</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="49">
         <v>22.745626000000001</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="50">
         <v>69.684720999999996</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="49">
         <v>76.312247999999997</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="52">
         <v>427</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="51">
         <v>2.8103044000000001</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="51">
         <v>97.189695999999998</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="50">
         <v>50</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="49">
         <v>55.903613999999997</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="50">
         <v>91.666667000000004</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="49">
         <v>93.253011999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="52">
         <v>3079</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="51">
         <v>71.029555000000002</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="51">
         <v>28.970445000000002</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="50">
         <v>10.242341</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="49">
         <v>23.991031</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="50">
         <v>57.796067999999998</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="49">
         <v>74.103138999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="52">
         <v>3115</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="51">
         <v>28.988764</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="51">
         <v>71.011235999999997</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="50">
         <v>36.323366999999998</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="49">
         <v>49.864376</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="50">
         <v>83.720929999999996</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="49">
         <v>91.048824999999994</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="52">
         <v>558</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="51">
         <v>61.648746000000003</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="51">
         <v>38.351253999999997</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="50">
         <v>39.244185999999999</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="49">
         <v>43.925234000000003</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="50">
         <v>80.813952999999998</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="49">
         <v>82.710279999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="52">
         <v>1029</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="51">
         <v>91.448008000000002</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="51">
         <v>8.5519922000000008</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="50">
         <v>21.147715000000002</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="49">
         <v>36.363636</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="50">
         <v>74.070138</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="49">
         <v>82.954544999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="58">
         <v>36345</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="57">
         <v>42.102077000000001</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="57">
         <v>57.897922999999999</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="60">
         <v>20.931903999999999</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="59">
         <v>30.295110000000001</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="60">
         <v>74.532741000000001</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="59">
         <v>82.511999000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="52">
         <v>689</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="51">
         <v>49.346879999999999</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="51">
         <v>50.653120000000001</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="50">
         <v>44.705882000000003</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="49">
         <v>46.704870999999997</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="50">
         <v>90.882352999999995</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="49">
         <v>87.679083000000006</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="52">
         <v>392</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="51">
         <v>54.591836999999998</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="51">
         <v>45.408163000000002</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="50">
         <v>6.0747663999999997</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="49">
         <v>10.674156999999999</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="50">
         <v>59.813084000000003</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="49">
         <v>61.797753</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="52">
         <v>305</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="51">
         <v>4.2622951000000002</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="51">
         <v>95.737705000000005</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="50">
         <v>46.153846000000001</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="49">
         <v>33.219177999999999</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="50">
         <v>92.307692000000003</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="49">
         <v>88.356164000000007</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="52">
         <v>4581</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="51">
         <v>25.671251000000002</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="51">
         <v>74.328749000000002</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="50">
         <v>45.493197000000002</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="49">
         <v>45.961821</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="50">
         <v>88.180272000000002</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="49">
         <v>89.133627000000004</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="52">
         <v>84</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="51">
         <v>29.761904999999999</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="51">
         <v>70.238095000000001</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="50">
         <v>36</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="49">
         <v>42.372881</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="50">
         <v>84</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="49">
         <v>86.440678000000005</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="52">
         <v>132</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="51">
         <v>31.818182</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="51">
         <v>68.181818000000007</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="50">
         <v>23.809524</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="49">
         <v>44.444443999999997</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="50">
         <v>66.666667000000004</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="49">
         <v>86.666667000000004</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="52">
         <v>8157</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="51">
         <v>48.069142999999997</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="51">
         <v>51.930857000000003</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="50">
         <v>21.576129000000002</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="49">
         <v>31.846081000000002</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="50">
         <v>68.604947999999993</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="49">
         <v>78.966005999999993</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="52">
         <v>1020</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="51">
         <v>31.764706</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="51">
         <v>68.235293999999996</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="50">
         <v>47.530864000000001</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="49">
         <v>50.862068999999998</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="50">
         <v>88.888889000000006</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="49">
         <v>92.959770000000006</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="52">
         <v>4611</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="51">
         <v>70.310128000000006</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="51">
         <v>29.689872000000001</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="50">
         <v>10.919186</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="49">
         <v>20.306792999999999</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="50">
         <v>66.378778999999994</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="49">
         <v>79.474069</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="58">
         <v>1448</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="57">
         <v>15.607735</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="57">
         <v>84.392264999999995</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="56">
         <v>15.044248</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="55">
         <v>21.276596000000001</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="56">
         <v>60.619469000000002</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="55">
         <v>72.258591999999993</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="52">
         <v>11165</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="51">
         <v>40.994177999999998</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="51">
         <v>59.005822000000002</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="50">
         <v>32.903649000000001</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="49">
         <v>40.877352999999999</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="50">
         <v>83.875900999999999</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="49">
         <v>89.541590999999997</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="52">
         <v>5990</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="51">
         <v>29.616026999999999</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="51">
         <v>70.383972999999997</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="50">
         <v>19.954903999999999</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="49">
         <v>20.303605000000001</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="50">
         <v>67.361894000000007</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="49">
         <v>69.425995999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="52">
         <v>219</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="51">
         <v>31.506848999999999</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="51">
         <v>68.493150999999997</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="50">
         <v>76.811593999999999</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="49">
         <v>70.666667000000004</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="50">
         <v>98.550725</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="49">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="52">
         <v>310</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="51">
         <v>38.709676999999999</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="51">
         <v>61.290323000000001</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="50">
         <v>66.666667000000004</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="49">
         <v>69.473684000000006</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="50">
         <v>96.666667000000004</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="49">
         <v>94.210526000000002</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="52">
         <v>18871</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="51">
         <v>52.434953</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="51">
         <v>47.565047</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="50">
         <v>31.379484999999999</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="49">
         <v>30.648396000000002</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="50">
         <v>72.662960999999996</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="49">
         <v>74.821747000000002</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="62">
+      <c r="B42" s="52">
         <v>1055</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="51">
         <v>41.800947999999998</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="51">
         <v>58.199052000000002</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="50">
         <v>17.687075</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="49">
         <v>24.592834</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="50">
         <v>63.265306000000002</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="49">
         <v>71.661237999999997</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="52">
         <v>9849</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="51">
         <v>36.917453999999999</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="51">
         <v>63.082546000000001</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="50">
         <v>26.155116</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="49">
         <v>35.103814999999997</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="50">
         <v>68.316832000000005</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="49">
         <v>78.126508999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="62">
+      <c r="B44" s="52">
         <v>5181</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="51">
         <v>40.841535999999998</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="51">
         <v>59.158464000000002</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="50">
         <v>60.349716000000001</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="49">
         <v>57.618271</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="50">
         <v>94.612476000000001</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="49">
         <v>95.725937999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="52">
         <v>486</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="51">
         <v>72.016461000000007</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="51">
         <v>27.983539</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="50">
         <v>52.857143000000001</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="49">
         <v>58.823529000000001</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="50">
         <v>86.857142999999994</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="49">
         <v>94.117647000000005</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="62">
+      <c r="B46" s="52">
         <v>1006</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="51">
         <v>39.264414000000002</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="51">
         <v>60.735585999999998</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="50">
         <v>26.075949000000001</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="49">
         <v>27.823240999999999</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="50">
         <v>67.088607999999994</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H46" s="49">
         <v>71.685760999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="52">
         <v>2260</v>
       </c>
-      <c r="C47" s="61">
+      <c r="C47" s="51">
         <v>27.035398000000001</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="51">
         <v>72.964601999999999</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="50">
         <v>21.931260000000002</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="49">
         <v>26.500910000000001</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="50">
         <v>73.977086999999997</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="49">
         <v>82.838083999999995</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="62">
+      <c r="B48" s="52">
         <v>9714</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="51">
         <v>68.581429</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="51">
         <v>31.418571</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="50">
         <v>22.230561000000002</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="49">
         <v>39.351244999999999</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="50">
         <v>88.847193000000004</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="49">
         <v>91.939712</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="52">
         <v>9129</v>
       </c>
-      <c r="C49" s="61">
+      <c r="C49" s="51">
         <v>72.757148000000001</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="51">
         <v>27.242851999999999</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="50">
         <v>26.001204000000001</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="49">
         <v>33.815842000000004</v>
       </c>
-      <c r="G49" s="60">
+      <c r="G49" s="50">
         <v>71.710328000000004</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="49">
         <v>81.423401999999996</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="52">
         <v>781</v>
       </c>
-      <c r="C50" s="61">
+      <c r="C50" s="51">
         <v>41.101151999999999</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="51">
         <v>58.898848000000001</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="50">
         <v>37.071651000000003</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="49">
         <v>34.782609000000001</v>
       </c>
-      <c r="G50" s="60">
+      <c r="G50" s="50">
         <v>84.423676</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="49">
         <v>77.391304000000005</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="52">
         <v>3589</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="51">
         <v>23.516300000000001</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="51">
         <v>76.483699999999999</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="50">
         <v>15.639810000000001</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="49">
         <v>21.894352999999999</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="50">
         <v>61.374408000000003</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="49">
         <v>67.577413000000007</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="52">
         <v>4383</v>
       </c>
-      <c r="C52" s="61">
+      <c r="C52" s="51">
         <v>30.093543</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="51">
         <v>69.906457000000003</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="50">
         <v>21.152387999999998</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="49">
         <v>22.715405000000001</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="50">
         <v>60.121304000000002</v>
       </c>
-      <c r="H52" s="59">
+      <c r="H52" s="49">
         <v>67.85248</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="52">
         <v>953</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="51">
         <v>28.856242999999999</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="51">
         <v>71.143756999999994</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="50">
         <v>12.727273</v>
       </c>
-      <c r="F53" s="59">
+      <c r="F53" s="49">
         <v>19.469027000000001</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="50">
         <v>63.272727000000003</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="49">
         <v>63.126843999999998</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="52">
         <v>2600</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="51">
         <v>27.076923000000001</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="51">
         <v>72.923077000000006</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54" s="50">
         <v>52.556818</v>
       </c>
-      <c r="F54" s="59">
+      <c r="F54" s="49">
         <v>52.21519</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="50">
         <v>85.795455000000004</v>
       </c>
-      <c r="H54" s="59">
+      <c r="H54" s="49">
         <v>89.504219000000006</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="52">
         <v>92</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="51">
         <v>40.217390999999999</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="51">
         <v>59.782609000000001</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="50">
         <v>67.567567999999994</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="49">
         <v>85.454544999999996</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="50">
         <v>89.189188999999999</v>
       </c>
-      <c r="H55" s="59">
+      <c r="H55" s="49">
         <v>96.363636</v>
       </c>
     </row>
@@ -11356,36 +11653,36 @@
       <c r="A56" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="58">
+      <c r="B56" s="48">
         <v>197750</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="47">
         <v>44.713526999999999</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="47">
         <v>55.286473000000001</v>
       </c>
-      <c r="E56" s="56">
+      <c r="E56" s="46">
         <v>25.869420000000002</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F56" s="45">
         <v>32.444274</v>
       </c>
-      <c r="G56" s="56">
+      <c r="G56" s="46">
         <v>74.538854000000001</v>
       </c>
-      <c r="H56" s="55">
+      <c r="H56" s="45">
         <v>80.018109999999993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{EF2B7283-B644-4146-ADCC-27C5D6DD14D5}"/>
@@ -11406,7 +11703,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:H3"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11420,76 +11717,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -12803,12 +13100,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{CC423EFE-AD5F-46D6-890D-9156CE9B3935}"/>
@@ -12829,7 +13126,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12843,76 +13140,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -14226,12 +14523,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{FD7B3A9C-7E81-4D4A-9A30-A42B84A8DD56}"/>
@@ -14265,76 +14562,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -15648,12 +15945,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{0261DBCA-DD99-45E6-8407-5579BD622EDE}"/>
@@ -15674,7 +15971,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14:F14"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15687,76 +15984,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -15785,1260 +16082,1260 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="71"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="52">
         <v>938</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="51">
         <v>49.040512</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="51">
         <v>50.959488</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="50">
         <v>49.130434999999999</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="49">
         <v>42.468618999999997</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="50">
         <v>84.130435000000006</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="49">
         <v>84.937237999999994</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="52">
         <v>5619</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="51">
         <v>30.841787</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="51">
         <v>69.158213000000003</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="50">
         <v>18.176572</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="49">
         <v>30.005147000000001</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="50">
         <v>70.628967000000003</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="49">
         <v>82.063818999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="52">
         <v>10150</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="51">
         <v>23.103448</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="51">
         <v>76.896552</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="50">
         <v>24.392323999999999</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="49">
         <v>39.910314</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="50">
         <v>77.313433000000003</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="49">
         <v>87.559257000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="52">
         <v>21638</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="51">
         <v>33.422682000000002</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="51">
         <v>66.577318000000005</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="50">
         <v>21.335730000000002</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="49">
         <v>25.378315000000001</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="50">
         <v>67.975663999999995</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="49">
         <v>72.164376000000004</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="52">
         <v>7603</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="51">
         <v>44.258845000000001</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="51">
         <v>55.741154999999999</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="50">
         <v>32.808320999999999</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="49">
         <v>44.950448000000002</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="50">
         <v>81.723625999999996</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="49">
         <v>88.390749999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="52">
         <v>561</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="51">
         <v>8.1996435000000005</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="51">
         <v>91.800357000000005</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="50">
         <v>41.304347999999997</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="49">
         <v>43.883495000000003</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="50">
         <v>80.434782999999996</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="49">
         <v>84.854369000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="52">
         <v>16659</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="51">
         <v>49.168618000000002</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="51">
         <v>50.831381999999998</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="50">
         <v>31.119520999999999</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="49">
         <v>33.573453000000001</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="50">
         <v>71.920400000000001</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="49">
         <v>73.205006999999995</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="52">
         <v>84</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="51">
         <v>52.380952000000001</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="51">
         <v>47.619047999999999</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="50">
         <v>65.909091000000004</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="49">
         <v>72.5</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="50">
         <v>84.090908999999996</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="49">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="58">
         <v>69</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="57">
         <v>40.579709999999999</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="57">
         <v>59.420290000000001</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="56">
         <v>39.285713999999999</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="55">
         <v>60.975610000000003</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="56">
         <v>89.285713999999999</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="55">
         <v>85.365853999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="52">
         <v>7664</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="51">
         <v>79.827765999999997</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="51">
         <v>20.172234</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="50">
         <v>32.347172</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="49">
         <v>40.620956999999997</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="50">
         <v>82.984635999999995</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="49">
         <v>85.963776999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="52">
         <v>437</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="51">
         <v>2.0594966000000001</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="51">
         <v>97.940503000000007</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="50">
         <v>77.777777999999998</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="49">
         <v>53.971963000000002</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="50">
         <v>100</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="49">
         <v>94.626168000000007</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="52">
         <v>5169</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="51">
         <v>74.037531000000001</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="51">
         <v>25.962468999999999</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="50">
         <v>29.840606000000001</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="49">
         <v>44.634872999999999</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="50">
         <v>84.348052999999993</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="49">
         <v>89.791355999999993</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="52">
         <v>4716</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="51">
         <v>30.428329000000002</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="51">
         <v>69.571670999999995</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="50">
         <v>49.337978999999997</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="49">
         <v>58.457787000000003</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="50">
         <v>91.010452999999998</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="49">
         <v>94.544346000000004</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="52">
         <v>150</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="51">
         <v>75.333332999999996</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="51">
         <v>24.666667</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="50">
         <v>46.902655000000003</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="49">
         <v>54.054054000000001</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="50">
         <v>92.920354000000003</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="49">
         <v>97.297297</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="52">
         <v>1808</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="51">
         <v>92.422566000000003</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="51">
         <v>7.5774336</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="50">
         <v>46.319569000000001</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="49">
         <v>60.583942</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="50">
         <v>85.876721000000003</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="49">
         <v>89.051095000000004</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="52">
         <v>44794</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="51">
         <v>48.189489999999999</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="51">
         <v>51.810510000000001</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="50">
         <v>31.863244999999999</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="49">
         <v>46.453809</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="50">
         <v>83.711664999999996</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="49">
         <v>90.348156000000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="58">
         <v>683</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="57">
         <v>39.385066000000002</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="57">
         <v>60.614933999999998</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="60">
         <v>42.007435000000001</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="59">
         <v>51.449275</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="60">
         <v>89.962824999999995</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="59">
         <v>89.371981000000005</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="52">
         <v>122</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="51">
         <v>51.639344000000001</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="51">
         <v>48.360655999999999</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="50">
         <v>6.3492062999999996</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="49">
         <v>10.169492</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="50">
         <v>55.555556000000003</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="49">
         <v>45.762712000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="52">
         <v>475</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="51">
         <v>1.8947368</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="51">
         <v>98.105262999999994</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="50">
         <v>44.444443999999997</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="49">
         <v>72.532189000000002</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="50">
         <v>100</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="49">
         <v>98.283261999999993</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="52">
         <v>10551</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="51">
         <v>35.390009999999997</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="51">
         <v>64.609989999999996</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="50">
         <v>49.758972</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="49">
         <v>60.114420000000003</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="50">
         <v>86.154257999999999</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="49">
         <v>91.638551000000007</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="52">
         <v>109</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="51">
         <v>35.779817000000001</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="51">
         <v>64.220183000000006</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="50">
         <v>41.025641</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="49">
         <v>48.571429000000002</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="50">
         <v>87.179486999999995</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="49">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="52">
         <v>167</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="51">
         <v>37.724550999999998</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="51">
         <v>62.275449000000002</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="50">
         <v>42.857143000000001</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="49">
         <v>72.115385000000003</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="50">
         <v>93.650794000000005</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="49">
         <v>97.115385000000003</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="52">
         <v>11574</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="51">
         <v>53.680664</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="51">
         <v>46.319336</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="50">
         <v>31.514565999999999</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="49">
         <v>43.928372000000003</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="50">
         <v>76.742315000000005</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="49">
         <v>84.032830000000004</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="52">
         <v>2188</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="51">
         <v>41.819012999999998</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="51">
         <v>58.180987000000002</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="50">
         <v>43.497267999999998</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="49">
         <v>56.166536000000001</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="50">
         <v>85.573769999999996</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="49">
         <v>90.494894000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="52">
         <v>6708</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="51">
         <v>70.095408000000006</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="51">
         <v>29.904592000000001</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="50">
         <v>32.199064</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="49">
         <v>49.651046999999998</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="50">
         <v>83.390046999999996</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="49">
         <v>90.827517</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="52">
         <v>1963</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="51">
         <v>19.816607000000001</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="51">
         <v>80.183392999999995</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="50">
         <v>12.85347</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="49">
         <v>24.523506999999999</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="50">
         <v>67.866324000000006</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="49">
         <v>79.606099</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="58">
         <v>15777</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="57">
         <v>46.675539999999998</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="57">
         <v>53.324460000000002</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="56">
         <v>31.002172999999999</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="55">
         <v>39.165576999999999</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="56">
         <v>75.054317999999995</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="55">
         <v>80.256746000000007</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="52">
         <v>1609</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="51">
         <v>22.436295999999999</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="51">
         <v>77.563704000000001</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="50">
         <v>25.761773000000002</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="49">
         <v>46.233974000000003</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="50">
         <v>86.703601000000006</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="49">
         <v>95.272435999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="52">
         <v>6461</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="51">
         <v>29.995356999999998</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="51">
         <v>70.004643000000002</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="50">
         <v>19.504643999999999</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="49">
         <v>36.192791999999997</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="50">
         <v>86.377708999999996</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="49">
         <v>93.720982000000006</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="52">
         <v>203</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="51">
         <v>28.078817999999998</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="51">
         <v>71.921182000000002</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="50">
         <v>66.666667000000004</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="49">
         <v>71.917807999999994</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="50">
         <v>94.736841999999996</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="49">
         <v>95.205478999999997</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="52">
         <v>454</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="51">
         <v>46.475771000000002</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="51">
         <v>53.524228999999998</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="50">
         <v>89.099525999999997</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="49">
         <v>93.004114999999999</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="50">
         <v>99.526066</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="49">
         <v>99.588476999999997</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="52">
         <v>2739</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="51">
         <v>51.004016</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="51">
         <v>48.995984</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="50">
         <v>4.7959914000000001</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="49">
         <v>2.9806259000000002</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="50">
         <v>35.075161000000001</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="49">
         <v>27.272727</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="62">
+      <c r="B42" s="52">
         <v>36483</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="51">
         <v>48.806292999999997</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="51">
         <v>51.193707000000003</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="50">
         <v>30.265079</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="49">
         <v>30.320715</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="50">
         <v>61.625295000000001</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="49">
         <v>62.097766999999997</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="52">
         <v>801</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="51">
         <v>43.695380999999998</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="51">
         <v>56.304619000000002</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="50">
         <v>18.285713999999999</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="49">
         <v>26.829267999999999</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="50">
         <v>60.285713999999999</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="49">
         <v>71.175166000000004</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="62">
+      <c r="B44" s="52">
         <v>11524</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="51">
         <v>41.548074</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="51">
         <v>58.451926</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="50">
         <v>27.986633000000001</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="49">
         <v>38.271971000000001</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="50">
         <v>72.410191999999995</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="49">
         <v>79.320070999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="52">
         <v>7620</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="51">
         <v>41.351706</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="51">
         <v>58.648294</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="50">
         <v>64.233576999999997</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="49">
         <v>66.994853000000006</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="50">
         <v>94.350999999999999</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="49">
         <v>95.860371000000001</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="62">
+      <c r="B46" s="52">
         <v>498</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="51">
         <v>67.469880000000003</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="51">
         <v>32.530119999999997</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="50">
         <v>56.25</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="49">
         <v>58.641975000000002</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="50">
         <v>93.75</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H46" s="49">
         <v>95.061728000000002</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="52">
         <v>239</v>
       </c>
-      <c r="C47" s="61">
+      <c r="C47" s="51">
         <v>38.493724</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="51">
         <v>61.506276</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="50">
         <v>11.956522</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="49">
         <v>25.170068000000001</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="50">
         <v>42.391303999999998</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="49">
         <v>60.544218000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="62">
+      <c r="B48" s="52">
         <v>14167</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="51">
         <v>69.019552000000004</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="51">
         <v>30.980447999999999</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="50">
         <v>53.057884999999999</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="49">
         <v>63.408521</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="50">
         <v>96.338719999999995</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="49">
         <v>96.924128999999994</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="52">
         <v>14942</v>
       </c>
-      <c r="C49" s="61">
+      <c r="C49" s="51">
         <v>72.921965</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="51">
         <v>27.078035</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="50">
         <v>25.073421</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="49">
         <v>39.545229999999997</v>
       </c>
-      <c r="G49" s="60">
+      <c r="G49" s="50">
         <v>70.714022999999997</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="49">
         <v>83.341571999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="52">
         <v>125</v>
       </c>
-      <c r="C50" s="61">
+      <c r="C50" s="51">
         <v>95.2</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="51">
         <v>4.8</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="50">
         <v>30.252101</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="49">
         <v>66.666667000000004</v>
       </c>
-      <c r="G50" s="60">
+      <c r="G50" s="50">
         <v>83.193276999999995</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="52">
         <v>934</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="51">
         <v>94.432547999999997</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="51">
         <v>5.5674517999999997</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="50">
         <v>53.287982</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="49">
         <v>69.230768999999995</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="50">
         <v>93.650794000000005</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="49">
         <v>98.076922999999994</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="52">
         <v>4279</v>
       </c>
-      <c r="C52" s="61">
+      <c r="C52" s="51">
         <v>86.982939999999999</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="51">
         <v>13.017060000000001</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="50">
         <v>48.549166999999997</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="49">
         <v>53.141831000000003</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="50">
         <v>93.471252000000007</v>
       </c>
-      <c r="H52" s="59">
+      <c r="H52" s="49">
         <v>95.870735999999994</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="52">
         <v>354</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="51">
         <v>23.163841999999999</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="51">
         <v>76.836157999999998</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="50">
         <v>20.731707</v>
       </c>
-      <c r="F53" s="59">
+      <c r="F53" s="49">
         <v>38.970587999999999</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="50">
         <v>58.536585000000002</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="49">
         <v>65.808824000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="52">
         <v>2117</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="51">
         <v>32.026452999999997</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="51">
         <v>67.973546999999996</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54" s="50">
         <v>32.005899999999997</v>
       </c>
-      <c r="F54" s="59">
+      <c r="F54" s="49">
         <v>36.831133000000001</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="50">
         <v>72.123894000000007</v>
       </c>
-      <c r="H54" s="59">
+      <c r="H54" s="49">
         <v>78.735232999999994</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="52">
         <v>92</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="51">
         <v>39.130434999999999</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="51">
         <v>60.869565000000001</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="50">
         <v>16.666667</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="49">
         <v>23.214286000000001</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="50">
         <v>50</v>
       </c>
-      <c r="H55" s="59">
+      <c r="H55" s="49">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="62">
+      <c r="B56" s="52">
         <v>3968</v>
       </c>
-      <c r="C56" s="61">
+      <c r="C56" s="51">
         <v>33.618952</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="51">
         <v>66.381048000000007</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="50">
         <v>50.899549999999998</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="49">
         <v>63.325740000000003</v>
       </c>
-      <c r="G56" s="60">
+      <c r="G56" s="50">
         <v>86.731634</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="49">
         <v>91.305998000000002</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="68">
+      <c r="B57" s="58">
         <v>49</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="57">
         <v>36.734693999999998</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="57">
         <v>63.265306000000002</v>
       </c>
-      <c r="E57" s="66">
+      <c r="E57" s="56">
         <v>61.111111000000001</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="55">
         <v>83.870968000000005</v>
       </c>
-      <c r="G57" s="66">
+      <c r="G57" s="56">
         <v>83.333332999999996</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="55">
         <v>93.548387000000005</v>
       </c>
     </row>
@@ -17046,36 +17343,36 @@
       <c r="A58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="48">
         <v>288034</v>
       </c>
-      <c r="C58" s="57">
+      <c r="C58" s="47">
         <v>48.603636999999999</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="47">
         <v>51.396363000000001</v>
       </c>
-      <c r="E58" s="56">
+      <c r="E58" s="46">
         <v>33.628343999999998</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="45">
         <v>41.255344999999998</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58" s="46">
         <v>77.962783999999999</v>
       </c>
-      <c r="H58" s="55">
+      <c r="H58" s="45">
         <v>81.847351000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to Contents Page" xr:uid="{A9226134-4EBF-4C52-A2BC-E6C020C8E434}"/>

--- a/Computing Science Drop Off.xlsx
+++ b/Computing Science Drop Off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44750\Documents\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033313A-45FB-4278-9866-D300765D9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B71A6D-CE41-4192-9739-E904F9D540FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A8C9630-F6CE-4560-95F6-A3D3A80F2E30}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="112">
   <si>
     <t>Totals</t>
   </si>
@@ -687,7 +687,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -879,6 +879,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1540,7 +1541,681 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Drop Off in Mathematics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$E$20:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Drop Off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$D$22:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015-2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016-2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$E$22:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4754280841164078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50870941754318855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51915736667227153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50521307221923395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-058A-4390-A805-F82CB8BAF44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$F$20:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Drop Off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$D$22:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015-2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016-2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$F$22:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.54944282901422814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.585859994197933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58878844838297817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59457602784588026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-058A-4390-A805-F82CB8BAF44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$G$20:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Voluntary Drop Off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$D$22:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015-2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016-2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$G$22:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.37878480876377163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2123135430302755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24629009739688035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23041800654680533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-058A-4390-A805-F82CB8BAF44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$H$20:$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Voluntary Drop Off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$D$22:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015-2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016-2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$H$22:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42093464273347947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35701432663465715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35719359166116271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37667278140937976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-058A-4390-A805-F82CB8BAF44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="350888543"/>
+        <c:axId val="350894783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="350888543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350894783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350894783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350888543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2083,20 +2758,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2116,6 +3294,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064822C0-0D3D-4EA1-9B90-CEE301714421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2421,18 +3635,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C6DC3D-B2F7-426D-8820-7BAFBCC43045}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2776,20 +3991,256 @@
       <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f>('Nat5 2015'!$B$42*('Nat5 2015'!C$42/100))+('Int2 2015'!$B$49*('Int2 2015'!C$49/100))</f>
+        <v>18862.999869069998</v>
+      </c>
+      <c r="C16">
+        <f>('Nat5 2015'!$B$42*('Nat5 2015'!D$42/100))+('Int2 2015'!$B$49*('Int2 2015'!D$49/100))</f>
+        <v>19922.000130930002</v>
+      </c>
+      <c r="D16">
+        <f>'Nat5 2016'!$B$42*('Nat5 2016'!C$42/100)</f>
+        <v>20207.999799900001</v>
+      </c>
+      <c r="E16">
+        <f>'Nat5 2016'!$B$42*('Nat5 2016'!D$42/100)</f>
+        <v>21570.000200099999</v>
+      </c>
+      <c r="F16" s="81">
+        <f>'Nat5 2017'!$B$42*('Nat5 2017'!C42/100)</f>
+        <v>20174.999811400001</v>
+      </c>
+      <c r="G16" s="81">
+        <f>'Nat5 2017'!$B$42*('Nat5 2017'!D42/100)</f>
+        <v>22013.000188600003</v>
+      </c>
+      <c r="H16">
+        <f>'Nat5 2018'!$B$42*('Nat5 2018'!C$42/100)</f>
+        <v>19757.99991893</v>
+      </c>
+      <c r="I16">
+        <f>'Nat5 2018'!$B$42*('Nat5 2018'!D$42/100)</f>
+        <v>21829.000081069997</v>
+      </c>
+      <c r="J16">
+        <f>'Higher 2016'!$B$41*('Higher 2016'!C$41/100)</f>
+        <v>9894.9999806299984</v>
+      </c>
+      <c r="K16">
+        <f>'Higher 2016'!$B$41*('Higher 2016'!D$41/100)</f>
+        <v>8976.0000193699998</v>
+      </c>
+      <c r="L16">
+        <f>'Higher 2017'!$B$41*('Higher 2017'!C$41/100)</f>
+        <v>9927.9999919799993</v>
+      </c>
+      <c r="M16">
+        <f>'Higher 2017'!$B$41*('Higher 2017'!D$41/100)</f>
+        <v>8933.0000080200007</v>
+      </c>
+      <c r="N16">
+        <f>'Higher 2018'!$B$41*('Higher 2018'!C$41/100)</f>
+        <v>9701.0000367000011</v>
+      </c>
+      <c r="O16">
+        <f>'Higher 2018'!$B$41*('Higher 2018'!D$41/100)</f>
+        <v>9051.9999633000007</v>
+      </c>
+      <c r="P16">
+        <f>'Higher 2019'!$B$41*('Higher 2019'!C$41/100)</f>
+        <v>9776.0000789799997</v>
+      </c>
+      <c r="Q16">
+        <f>'Higher 2019'!$B$41*('Higher 2019'!D$41/100)</f>
+        <v>8849.9999210200003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <f>(('Nat5 2015'!$B$42*('Nat5 2015'!C$42/100))*('Nat5 2015'!G42/100))+(('Int2 2015'!$B$49*('Int2 2015'!C$49/100))*('Int2 2015'!H49/100))</f>
+        <v>11574.089105205179</v>
+      </c>
+      <c r="C18">
+        <f>(('Nat5 2015'!$B$42*('Nat5 2015'!D$42/100))*('Nat5 2015'!H42/100))+(('Int2 2015'!$B$49*('Int2 2015'!D$49/100))*('Int2 2015'!I49/100))</f>
+        <v>11598.000020094223</v>
+      </c>
+      <c r="D18">
+        <f>D16*('Nat5 2016'!G42/100)</f>
+        <v>12603.999858234953</v>
+      </c>
+      <c r="E18">
+        <f>E16*('Nat5 2016'!H42/100)</f>
+        <v>13893.000074582209</v>
+      </c>
+      <c r="F18" s="81">
+        <f>F16*('Nat5 2017'!G42/100)</f>
+        <v>12870.999841179277</v>
+      </c>
+      <c r="G18" s="81">
+        <f>G16*('Nat5 2017'!H42/100)</f>
+        <v>14082.000188349855</v>
+      </c>
+      <c r="H18">
+        <f>H16*('Nat5 2018'!G42/100)</f>
+        <v>12703.00002097771</v>
+      </c>
+      <c r="I18">
+        <f>I16*('Nat5 2018'!H42/100)</f>
+        <v>14198.000114659479</v>
+      </c>
+      <c r="J18">
+        <f>J16*('Higher 2016'!G41/100)</f>
+        <v>7189.9999768751823</v>
+      </c>
+      <c r="K18">
+        <f>K16*('Higher 2016'!H41/100)</f>
+        <v>6716.000025212973</v>
+      </c>
+      <c r="L18">
+        <f>L16*('Higher 2017'!G41/100)</f>
+        <v>7231.9999685578723</v>
+      </c>
+      <c r="M18">
+        <f>M16*('Higher 2017'!H41/100)</f>
+        <v>6745.9999882465227</v>
+      </c>
+      <c r="N18">
+        <f>N16*('Higher 2018'!G41/100)</f>
+        <v>7045.9999825258301</v>
+      </c>
+      <c r="O18">
+        <f>O16*('Higher 2018'!H41/100)</f>
+        <v>6943.9999929265759</v>
+      </c>
+      <c r="P18">
+        <f>P16*('Higher 2019'!K41/100)</f>
+        <v>6882.0000219994636</v>
+      </c>
+      <c r="Q18">
+        <f>Q16*('Higher 2019'!L41/100)</f>
+        <v>6602.9998975728895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="44">
+        <f>1-(J16/B16)</f>
+        <v>0.4754280841164078</v>
+      </c>
+      <c r="F22" s="44">
+        <f>1-(K16/C16)</f>
+        <v>0.54944282901422814</v>
+      </c>
+      <c r="G22" s="44">
+        <f>1-(J18/B18)</f>
+        <v>0.37878480876377163</v>
+      </c>
+      <c r="H22" s="44">
+        <f>1-(K18/C18)</f>
+        <v>0.42093464273347947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="44">
+        <f>1-(L16/D16)</f>
+        <v>0.50870941754318855</v>
+      </c>
+      <c r="F23" s="44">
+        <f>1-(M16/E16)</f>
+        <v>0.585859994197933</v>
+      </c>
+      <c r="G23" s="44">
+        <f>1-(L16/D18)</f>
+        <v>0.2123135430302755</v>
+      </c>
+      <c r="H23" s="44">
+        <f>1-(M16/E18)</f>
+        <v>0.35701432663465715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="44">
+        <f>1-(N16/F16)</f>
+        <v>0.51915736667227153</v>
+      </c>
+      <c r="F24" s="44">
+        <f>1-(O16/G16)</f>
+        <v>0.58878844838297817</v>
+      </c>
+      <c r="G24" s="44">
+        <f>1-(N16/F18)</f>
+        <v>0.24629009739688035</v>
+      </c>
+      <c r="H24" s="44">
+        <f>1-(O16/G18)</f>
+        <v>0.35719359166116271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="44">
+        <f>1-(P16/H16)</f>
+        <v>0.50521307221923395</v>
+      </c>
+      <c r="F25" s="44">
+        <f>1-(Q16/I16)</f>
+        <v>0.59457602784588026</v>
+      </c>
+      <c r="G25" s="44">
+        <f>1-(P16/H18)</f>
+        <v>0.23041800654680533</v>
+      </c>
+      <c r="H25" s="44">
+        <f>1-(Q16/I18)</f>
+        <v>0.37667278140937976</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,9 +4257,9 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7575,9 +9026,9 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8953,9 +10404,9 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10331,9 +11782,9 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11701,9 +13152,9 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13124,9 +14575,9 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:I1"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14547,9 +15998,9 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14:F14"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15971,7 +17422,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14:F14"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
